--- a/WebService/Data/ProductsPriceList.xlsx
+++ b/WebService/Data/ProductsPriceList.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Id</t>
   </si>
@@ -37,18 +37,24 @@
     <t>Price</t>
   </si>
   <si>
+    <t>aeb93da5-5464-461a-b919-c3adcf398c42</t>
+  </si>
+  <si>
+    <t>ProducstLibrary.Model.Bread, ProducstLibrary</t>
+  </si>
+  <si>
+    <t>бородинский</t>
+  </si>
+  <si>
+    <t>хз3</t>
+  </si>
+  <si>
     <t>25012e7d-690f-4267-b11f-721a4fdd5b72</t>
   </si>
   <si>
-    <t>ProducstLibrary.Model.Bread, ProducstLibrary</t>
-  </si>
-  <si>
     <t>дарницкий</t>
   </si>
   <si>
-    <t>хз3</t>
-  </si>
-  <si>
     <t>877d51d2-a908-453b-a033-0b8d9707c147</t>
   </si>
   <si>
@@ -65,6 +71,12 @@
   </si>
   <si>
     <t>молоко 3</t>
+  </si>
+  <si>
+    <t>6b28ec11-b148-4ab1-a567-0e1629e71a2d</t>
+  </si>
+  <si>
+    <t>молоко 25</t>
   </si>
 </sst>
 </file>
@@ -100,18 +112,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
       <diagonal/>
     </border>
   </borders>
@@ -120,14 +124,14 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="1" applyBorder="1" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="4" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" borderId="1" applyBorder="1" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="4" applyNumberFormat="1" fontId="0" fillId="0" borderId="1" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="4" applyNumberFormat="1" fontId="0" fillId="0" borderId="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -420,7 +424,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac xr">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
@@ -428,79 +432,113 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.28515625" customWidth="1"/>
-    <col min="2" max="2" width="41.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="38.23672103881836" customWidth="1"/>
+    <col min="2" max="2" width="41.27215576171875" customWidth="1"/>
+    <col min="3" max="3" width="13.027372360229492" customWidth="1"/>
+    <col min="4" max="4" width="12.884142875671387" customWidth="1"/>
     <col min="5" max="5" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="15.75">
-      <c r="A2" s="3" t="s">
+    <row r="2">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="4">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4">
         <v>2.5</v>
       </c>
     </row>
-    <row r="3" ht="15.75">
-      <c r="A3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="3" t="s">
+    <row r="4">
+      <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="4">
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="4">
         <v>2.6</v>
       </c>
     </row>
-    <row r="4" ht="15.75">
-      <c r="A4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3" t="s">
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E5" s="4">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="4">
-        <v>2.4</v>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2.7</v>
       </c>
     </row>
   </sheetData>

--- a/WebService/Data/ProductsPriceList.xlsx
+++ b/WebService/Data/ProductsPriceList.xlsx
@@ -5,22 +5,22 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alek2\source\repos\PriceList\WebService\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alek2\source\repos\PriceList\WebService\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21015" windowHeight="11955" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceTags" sheetId="1" r:id="rId1"/>
-    <sheet name="PriceList" sheetId="2" r:id="rId2"/>
+    <sheet name="PriceList" sheetId="1" r:id="rId1"/>
+    <sheet name="PriceTags" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Id</t>
   </si>
@@ -37,31 +37,25 @@
     <t>Price</t>
   </si>
   <si>
-    <t>aeb93da5-5464-461a-b919-c3adcf398c42</t>
+    <t>25012e7d-690f-4267-b11f-721a4fdd5b72</t>
   </si>
   <si>
     <t>ProducstLibrary.Model.Bread, ProducstLibrary</t>
   </si>
   <si>
-    <t>бородинский</t>
+    <t>дарницкий</t>
   </si>
   <si>
     <t>хз3</t>
   </si>
   <si>
-    <t>25012e7d-690f-4267-b11f-721a4fdd5b72</t>
-  </si>
-  <si>
-    <t>дарницкий</t>
-  </si>
-  <si>
     <t>877d51d2-a908-453b-a033-0b8d9707c147</t>
   </si>
   <si>
     <t>ProducstLibrary.Model.Milk, ProducstLibrary</t>
   </si>
   <si>
-    <t>молоко 2</t>
+    <t>молоко2</t>
   </si>
   <si>
     <t>игра</t>
@@ -70,13 +64,7 @@
     <t>b8a8f59e-b449-42b1-820f-e1f453b44bf0</t>
   </si>
   <si>
-    <t>молоко 3</t>
-  </si>
-  <si>
-    <t>6b28ec11-b148-4ab1-a567-0e1629e71a2d</t>
-  </si>
-  <si>
-    <t>молоко 25</t>
+    <t>молоко3</t>
   </si>
 </sst>
 </file>
@@ -112,10 +100,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -124,14 +120,14 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="1" applyBorder="1" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" borderId="1" applyBorder="1" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="4" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" applyNumberFormat="1" fontId="0" fillId="0" borderId="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="4" applyNumberFormat="1" fontId="0" fillId="0" borderId="1" applyBorder="1" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -412,137 +408,102 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac xr">
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="38.28515625" customWidth="1"/>
+    <col min="2" max="2" width="41.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="4">
+        <v>2.75</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac xr">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="38.23672103881836" customWidth="1"/>
-    <col min="2" max="2" width="41.27215576171875" customWidth="1"/>
-    <col min="3" max="3" width="13.027372360229492" customWidth="1"/>
-    <col min="4" max="4" width="12.884142875671387" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="4">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="4">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="4">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="4">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="4">
-        <v>2.7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
   <headerFooter/>
 </worksheet>
 </file>